--- a/Diagrama de Gantt/Diagrama.xlsx
+++ b/Diagrama de Gantt/Diagrama.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fecha</t>
   </si>
@@ -59,12 +59,15 @@
   <si>
     <t>Explicacion Scripts</t>
   </si>
+  <si>
+    <t>Control de errores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +80,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,10 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,6 +1505,143 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fecha!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control de errores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fecha!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fecha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fecha!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1506,11 +1653,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1931717104"/>
-        <c:axId val="1931717648"/>
+        <c:axId val="-1053787568"/>
+        <c:axId val="-1053786480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1931717104"/>
+        <c:axId val="-1053787568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1667,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1931717648"/>
+        <c:crossAx val="-1053786480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1931717648"/>
+        <c:axId val="-1053786480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1699,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1931717104"/>
+        <c:crossAx val="-1053787568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,10 +2373,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114788</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19538</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53974</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2254,8 +2401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Actividad" dataDxfId="1"/>
     <tableColumn id="2" name="Fecha" dataDxfId="0"/>
@@ -2527,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -2624,6 +2771,14 @@
         <v>44684</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Diagrama de Gantt/Diagrama.xlsx
+++ b/Diagrama de Gantt/Diagrama.xlsx
@@ -267,7 +267,7 @@
         </c:manualLayout>
       </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -275,11 +275,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fecha!$A$2</c:f>
+              <c:f>Fecha!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Presentacion</c:v>
+                  <c:v>Fecha</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -303,160 +303,6 @@
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.388888888888894E-2"/>
-                  <c:y val="4.6296296296295869E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>44652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Contexto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -536,1106 +382,76 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
+              <c:f>Fecha!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Fecha</c:v>
+                  <c:v>Presentacion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Contexto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Objetivos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Esquema</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Presupuesto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Entorno Virtual</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scripts Basicos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mejora de Scripts</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Explicacion Scripts</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Control de errores</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fecha!$B$3</c:f>
+              <c:f>Fecha!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>44653</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Objetivos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>44661</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Esquema</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="3">
                   <c:v>44666</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Presupuesto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="4">
                   <c:v>44671</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entorno Virtual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="5">
                   <c:v>44673</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scripts Basicos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="6">
                   <c:v>44675</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mejora de Scripts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="7">
                   <c:v>44680</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Explicacion Scripts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="8">
                   <c:v>44684</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fecha!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Control de errores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Fecha!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fecha</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fecha!$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:pt idx="9">
                   <c:v>44689</c:v>
                 </c:pt>
               </c:numCache>
@@ -1652,22 +468,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="-1053787568"/>
-        <c:axId val="-1053786480"/>
+        <c:axId val="1744341680"/>
+        <c:axId val="1744336240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1053787568"/>
+        <c:axId val="1744341680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1053786480"/>
+        <c:crossAx val="1744336240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,12 +490,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1053786480"/>
+        <c:axId val="1744336240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1699,7 +514,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1053787568"/>
+        <c:crossAx val="1744341680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,7 +1492,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -2793,7 +1608,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
